--- a/excel/templates/AccountsTemplate.xlsx
+++ b/excel/templates/AccountsTemplate.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/trunks/WBB/target/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E9E4C-26A3-CA42-A3A5-24E7F0434022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E87A780-3B01-7A42-A355-31F966558CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Имя</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Чистый</t>
+  </si>
+  <si>
+    <t>Кол-во сессий</t>
+  </si>
+  <si>
+    <t>Годен до</t>
+  </si>
+  <si>
+    <t>Привязка к ПВЗ</t>
+  </si>
+  <si>
+    <t>Баланс</t>
+  </si>
+  <si>
+    <t>Ручная регистрация</t>
   </si>
 </sst>
 </file>
@@ -405,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA568376-2B7B-DE43-A9C7-4B2C8360CF44}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,11 +431,15 @@
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" hidden="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,9 +452,24 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{AA568376-2B7B-DE43-A9C7-4B2C8360CF44}"/>
+  <autoFilter ref="A1:I1" xr:uid="{AA568376-2B7B-DE43-A9C7-4B2C8360CF44}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>